--- a/Data/Input/With_observations/Brana/Brana.xlsx
+++ b/Data/Input/With_observations/Brana/Brana.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Brana\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="21072" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -213,6 +218,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -260,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +303,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,18 +515,18 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -541,7 +549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -555,10 +563,10 @@
         <v>7372.4369999999999</v>
       </c>
       <c r="E2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>0</v>
@@ -566,7 +574,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -580,10 +588,10 @@
         <v>7401.2660999999998</v>
       </c>
       <c r="E3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>0</v>
@@ -591,7 +599,7 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -605,10 +613,10 @@
         <v>7095.4877999999999</v>
       </c>
       <c r="E4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="b">
         <v>0</v>
@@ -616,7 +624,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -630,10 +638,10 @@
         <v>7052.4312</v>
       </c>
       <c r="E5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>0</v>
@@ -641,7 +649,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -666,7 +674,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -680,7 +688,7 @@
         <v>7675.0239000000001</v>
       </c>
       <c r="E7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4" t="b">
         <v>0</v>
@@ -691,7 +699,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -716,7 +724,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -741,7 +749,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -758,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>1</v>
@@ -780,9 +788,9 @@
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -823,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -850,7 +858,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -871,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -892,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -913,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -934,7 +942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -955,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -981,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1033,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1101,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,7 +1151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1185,7 +1193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1211,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1232,7 +1240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,7 +1261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1274,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1316,7 +1324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1400,7 +1408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1421,7 +1429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -1454,7 +1462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Input/With_observations/Brana/Brana.xlsx
+++ b/Data/Input/With_observations/Brana/Brana.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +688,7 @@
         <v>7675.0239000000001</v>
       </c>
       <c r="E7" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4" t="b">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>1</v>

--- a/Data/Input/With_observations/Brana/Brana.xlsx
+++ b/Data/Input/With_observations/Brana/Brana.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Brana\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="21072" windowHeight="8016"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>from</t>
   </si>
@@ -101,13 +96,28 @@
     <t>y</t>
   </si>
   <si>
-    <t>FIX_X</t>
-  </si>
-  <si>
-    <t>FIX_Y</t>
-  </si>
-  <si>
     <t>Point_object</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>sd_dh</t>
+  </si>
+  <si>
+    <t>d_dh</t>
+  </si>
+  <si>
+    <t>n_dh</t>
+  </si>
+  <si>
+    <t>FIX_2D</t>
+  </si>
+  <si>
+    <t>FIX_1D</t>
   </si>
 </sst>
 </file>
@@ -268,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,21 +522,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -540,16 +551,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -562,19 +576,20 @@
       <c r="D2" s="6">
         <v>7372.4369999999999</v>
       </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -587,19 +602,20 @@
       <c r="D3" s="6">
         <v>7401.2660999999998</v>
       </c>
-      <c r="E3" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -612,19 +628,20 @@
       <c r="D4" s="6">
         <v>7095.4877999999999</v>
       </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -637,19 +654,20 @@
       <c r="D5" s="6">
         <v>7052.4312</v>
       </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -662,19 +680,20 @@
       <c r="D6" s="6">
         <v>7651.9408999999996</v>
       </c>
-      <c r="E6" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -687,19 +706,20 @@
       <c r="D7" s="6">
         <v>7675.0239000000001</v>
       </c>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -712,19 +732,20 @@
       <c r="D8" s="6">
         <v>7680.7079999999996</v>
       </c>
-      <c r="E8" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -737,19 +758,20 @@
       <c r="D9" s="6">
         <v>7674.9818999999998</v>
       </c>
-      <c r="E9" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E9" s="6"/>
       <c r="F9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -762,17 +784,18 @@
       <c r="D10" s="6">
         <v>7631.4258</v>
       </c>
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="12"/>
       <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -782,15 +805,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="O1" sqref="O1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -822,16 +845,28 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -850,15 +885,15 @@
       <c r="F2" s="8">
         <v>321.42500000000001</v>
       </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
       <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -875,11 +910,11 @@
         <v>13.6</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="K3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -896,11 +931,11 @@
         <v>58.2</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="K4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -917,11 +952,11 @@
         <v>41.7</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="K5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -938,11 +973,11 @@
         <v>14.5</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="K6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -959,11 +994,11 @@
         <v>42.9</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="K7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -982,14 +1017,14 @@
       <c r="F8" s="8">
         <v>525.62</v>
       </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
       <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1008,14 +1043,14 @@
       <c r="F9" s="8">
         <v>510.834</v>
       </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
       <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1034,14 +1069,14 @@
       <c r="F10" s="8">
         <v>320.37599999999998</v>
       </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
       <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1060,14 +1095,14 @@
       <c r="F11" s="8">
         <v>655.55600000000004</v>
       </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
       <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,11 +1119,11 @@
         <v>19.5</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="K12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,11 +1140,11 @@
         <v>3.6</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="K13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1126,11 +1161,11 @@
         <v>16.399999999999999</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="K14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,11 +1182,11 @@
         <v>45.4</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="K15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1168,11 +1203,11 @@
         <v>7.8</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1189,11 +1224,11 @@
         <v>39.299999999999997</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="K17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1212,14 +1247,14 @@
       <c r="F18" s="10">
         <v>461.45699999999999</v>
       </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
       <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1236,11 +1271,11 @@
         <v>47.4</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="K19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,11 +1292,11 @@
         <v>41</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="K20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1278,11 +1313,11 @@
         <v>47.2</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="K21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1299,11 +1334,11 @@
         <v>10.6</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="K22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1320,11 +1355,11 @@
         <v>34.299999999999997</v>
       </c>
       <c r="F23" s="11"/>
-      <c r="K23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,11 +1376,11 @@
         <v>36.1</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="K24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1362,11 +1397,11 @@
         <v>32.700000000000003</v>
       </c>
       <c r="F25" s="11"/>
-      <c r="K25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1383,11 +1418,11 @@
         <v>34.6</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="K26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1404,11 +1439,11 @@
         <v>20.3</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="K27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,11 +1460,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="K28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -1446,7 +1481,7 @@
         <v>46.2</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="K29">
+      <c r="L29">
         <v>3</v>
       </c>
     </row>
@@ -1462,7 +1497,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Input/With_observations/Brana/Brana.xlsx
+++ b/Data/Input/With_observations/Brana/Brana.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Brana\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="21072" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -278,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +318,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,19 +530,19 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -563,7 +568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -580,16 +585,14 @@
       <c r="F2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -606,16 +609,14 @@
       <c r="F3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -632,16 +633,14 @@
       <c r="F4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -658,16 +657,14 @@
       <c r="F5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -684,16 +681,14 @@
       <c r="F6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -710,16 +705,14 @@
       <c r="F7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -736,16 +729,14 @@
       <c r="F8" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -762,16 +753,14 @@
       <c r="F9" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -788,9 +777,7 @@
       <c r="F10" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4" t="b">
         <v>1</v>
       </c>
@@ -811,9 +798,9 @@
       <selection activeCell="O1" sqref="O1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -866,7 +853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -893,7 +880,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -914,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -935,7 +922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -956,7 +943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,7 +964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -998,7 +985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1102,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1123,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1165,7 +1152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1186,7 +1173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1207,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1228,7 +1215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1275,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1317,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1338,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,7 +1346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1380,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1401,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1422,7 +1409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1443,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,7 +1451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -1497,7 +1484,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Input/With_observations/Brana/Brana.xlsx
+++ b/Data/Input/With_observations/Brana/Brana.xlsx
@@ -129,9 +129,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -189,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -221,6 +222,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,13 +534,14 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
     <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -575,15 +580,15 @@
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="13">
         <v>6130.2479999999996</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="13">
         <v>7372.4369999999999</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="b">
@@ -599,15 +604,15 @@
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="13">
         <v>6655.0790999999999</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="13">
         <v>7401.2660999999998</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="b">
@@ -623,15 +628,15 @@
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="13">
         <v>6559.4839000000002</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="13">
         <v>7095.4877999999999</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="b">
@@ -647,15 +652,15 @@
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="13">
         <v>6100.0370999999996</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="13">
         <v>7052.4312</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="b">
@@ -671,10 +676,10 @@
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="13">
         <v>6201.9458000000004</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="13">
         <v>7651.9408999999996</v>
       </c>
       <c r="E6" s="6"/>
@@ -695,10 +700,10 @@
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="13">
         <v>6275.3262000000004</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="13">
         <v>7675.0239000000001</v>
       </c>
       <c r="E7" s="6"/>
@@ -719,10 +724,10 @@
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="13">
         <v>6361.2461000000003</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="13">
         <v>7680.7079999999996</v>
       </c>
       <c r="E8" s="6"/>
@@ -743,10 +748,10 @@
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="13">
         <v>6444.3168999999998</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="13">
         <v>7674.9818999999998</v>
       </c>
       <c r="E9" s="6"/>
@@ -767,10 +772,10 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="13">
         <v>6550.3242</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="13">
         <v>7631.4258</v>
       </c>
       <c r="E10" s="6"/>
@@ -795,7 +800,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q1"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,7 +878,7 @@
         <v>321.42500000000001</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>4</v>
@@ -898,7 +903,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="L3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -919,7 +924,7 @@
       </c>
       <c r="F4" s="9"/>
       <c r="L4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -940,7 +945,7 @@
       </c>
       <c r="F5" s="9"/>
       <c r="L5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -961,7 +966,7 @@
       </c>
       <c r="F6" s="9"/>
       <c r="L6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -982,7 +987,7 @@
       </c>
       <c r="F7" s="9"/>
       <c r="L7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1005,7 +1010,7 @@
         <v>525.62</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -1030,9 +1035,6 @@
       <c r="F9" s="8">
         <v>510.834</v>
       </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
       <c r="M9">
         <v>4</v>
       </c>
@@ -1057,7 +1059,7 @@
         <v>320.37599999999998</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -1083,7 +1085,7 @@
         <v>655.55600000000004</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <v>4</v>
@@ -1107,7 +1109,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="L12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1128,7 +1130,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="L13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1149,7 +1151,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="L14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1170,7 +1172,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1191,7 +1193,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1212,7 +1214,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="L17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1235,7 +1237,7 @@
         <v>461.45699999999999</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>4</v>
@@ -1259,7 +1261,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1280,7 +1282,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="L20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1301,7 +1303,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="L21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1322,7 +1324,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="L22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1343,7 +1345,7 @@
       </c>
       <c r="F23" s="11"/>
       <c r="L23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1364,7 +1366,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="L24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1385,7 +1387,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="L25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1406,7 +1408,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="L26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1427,7 +1429,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="L27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1448,7 +1450,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="L28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1469,7 +1471,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="L29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/With_observations/Brana/Brana.xlsx
+++ b/Data/Input/With_observations/Brana/Brana.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="21072" windowHeight="8016"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="21072" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="b">
@@ -612,7 +612,7 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="b">
@@ -636,7 +636,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="b">
@@ -660,7 +660,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="b">
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +878,7 @@
         <v>321.42500000000001</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>4</v>
@@ -903,7 +903,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -924,7 +924,7 @@
       </c>
       <c r="F4" s="9"/>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -945,7 +945,7 @@
       </c>
       <c r="F5" s="9"/>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="F6" s="9"/>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
       </c>
       <c r="F7" s="9"/>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1010,7 +1010,7 @@
         <v>525.62</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -1059,7 +1059,7 @@
         <v>320.37599999999998</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -1085,7 +1085,7 @@
         <v>655.55600000000004</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>4</v>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>461.45699999999999</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>4</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="L19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F23" s="11"/>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="L28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="L29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/With_observations/Brana/Brana.xlsx
+++ b/Data/Input/With_observations/Brana/Brana.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Brana\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="21072" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>from</t>
   </si>
@@ -123,6 +118,18 @@
   </si>
   <si>
     <t>FIX_1D</t>
+  </si>
+  <si>
+    <t>e_cent_from</t>
+  </si>
+  <si>
+    <t>e_cent_to</t>
+  </si>
+  <si>
+    <t>e_focus</t>
+  </si>
+  <si>
+    <t>e_air</t>
   </si>
 </sst>
 </file>
@@ -287,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,17 +544,17 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -797,15 +804,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L29"/>
+      <selection activeCell="U2" sqref="U2:U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,8 +864,20 @@
       <c r="Q1" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -878,14 +897,26 @@
         <v>321.42500000000001</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -903,10 +934,22 @@
       </c>
       <c r="F3" s="9"/>
       <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>0.5</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -924,10 +967,22 @@
       </c>
       <c r="F4" s="9"/>
       <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -945,10 +1000,22 @@
       </c>
       <c r="F5" s="9"/>
       <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0.5</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -966,10 +1033,22 @@
       </c>
       <c r="F6" s="9"/>
       <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -987,10 +1066,22 @@
       </c>
       <c r="F7" s="9"/>
       <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1010,13 +1101,25 @@
         <v>525.62</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>0.5</v>
+      </c>
+      <c r="S8">
+        <v>0.5</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1038,8 +1141,20 @@
       <c r="M9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,13 +1174,25 @@
         <v>320.37599999999998</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>0.5</v>
+      </c>
+      <c r="S10">
+        <v>0.5</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,13 +1212,25 @@
         <v>655.55600000000004</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>0.5</v>
+      </c>
+      <c r="S11">
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,10 +1248,22 @@
       </c>
       <c r="F12" s="9"/>
       <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>0.5</v>
+      </c>
+      <c r="S12">
+        <v>0.5</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1130,10 +1281,22 @@
       </c>
       <c r="F13" s="9"/>
       <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>0.5</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1151,10 +1314,22 @@
       </c>
       <c r="F14" s="9"/>
       <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14">
+        <v>0.5</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1172,10 +1347,22 @@
       </c>
       <c r="F15" s="9"/>
       <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>0.5</v>
+      </c>
+      <c r="S15">
+        <v>0.5</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1193,10 +1380,22 @@
       </c>
       <c r="F16" s="9"/>
       <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>0.5</v>
+      </c>
+      <c r="S16">
+        <v>0.5</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,10 +1413,22 @@
       </c>
       <c r="F17" s="9"/>
       <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>0.5</v>
+      </c>
+      <c r="S17">
+        <v>0.5</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1237,13 +1448,25 @@
         <v>461.45699999999999</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <v>0.5</v>
+      </c>
+      <c r="S18">
+        <v>0.5</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,10 +1484,22 @@
       </c>
       <c r="F19" s="11"/>
       <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <v>0.5</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1282,10 +1517,22 @@
       </c>
       <c r="F20" s="11"/>
       <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1303,10 +1550,22 @@
       </c>
       <c r="F21" s="11"/>
       <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>0.5</v>
+      </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1324,10 +1583,22 @@
       </c>
       <c r="F22" s="11"/>
       <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1345,10 +1616,22 @@
       </c>
       <c r="F23" s="11"/>
       <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>0.5</v>
+      </c>
+      <c r="S23">
+        <v>0.5</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1366,10 +1649,22 @@
       </c>
       <c r="F24" s="11"/>
       <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>0.5</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1387,10 +1682,22 @@
       </c>
       <c r="F25" s="11"/>
       <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>0.5</v>
+      </c>
+      <c r="S25">
+        <v>0.5</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1408,10 +1715,22 @@
       </c>
       <c r="F26" s="11"/>
       <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>0.5</v>
+      </c>
+      <c r="S26">
+        <v>0.5</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1429,10 +1748,22 @@
       </c>
       <c r="F27" s="11"/>
       <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>0.5</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1450,10 +1781,22 @@
       </c>
       <c r="F28" s="11"/>
       <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>0.5</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -1471,7 +1814,19 @@
       </c>
       <c r="F29" s="11"/>
       <c r="L29">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>0.5</v>
+      </c>
+      <c r="S29">
+        <v>0.5</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1841,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Input/With_observations/Brana/Brana.xlsx
+++ b/Data/Input/With_observations/Brana/Brana.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Brana\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
     <sheet name="Observations" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -135,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -294,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,7 +558,7 @@
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -580,7 +584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -604,7 +608,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -628,7 +632,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -652,7 +656,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -676,7 +680,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -700,7 +704,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -724,7 +728,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -748,7 +752,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -772,7 +776,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -806,11 +810,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -877,7 +887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -916,7 +926,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -949,7 +959,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -982,7 +992,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1025,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +1058,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1091,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1119,7 +1129,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1202,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1230,7 +1240,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1263,7 +1273,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1306,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1329,7 +1339,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1372,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1395,7 +1405,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1438,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1476,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1499,7 +1509,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +1542,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1565,7 +1575,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1598,7 +1608,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1833,16 +1843,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/Input/With_observations/Brana/Brana.xlsx
+++ b/Data/Input/With_observations/Brana/Brana.xlsx
@@ -807,7 +807,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U29"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,10 +897,10 @@
         <v>321.42500000000001</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O2" s="3"/>
       <c r="R2">
@@ -934,7 +934,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="L3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R3">
         <v>0.5</v>
@@ -967,7 +967,7 @@
       </c>
       <c r="F4" s="9"/>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R4">
         <v>0.5</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="F5" s="9"/>
       <c r="L5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <v>0.5</v>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F6" s="9"/>
       <c r="L6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <v>0.5</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="F7" s="9"/>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1101,10 +1101,10 @@
         <v>525.62</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0.5</v>
@@ -1138,8 +1138,11 @@
       <c r="F9" s="8">
         <v>510.834</v>
       </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
       <c r="M9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0.5</v>
@@ -1174,10 +1177,10 @@
         <v>320.37599999999998</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0.5</v>
@@ -1212,10 +1215,10 @@
         <v>655.55600000000004</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0.5</v>
@@ -1248,7 +1251,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="L12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>0.5</v>
@@ -1281,7 +1284,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="L13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>0.5</v>
@@ -1314,7 +1317,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="L14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R14">
         <v>0.5</v>
@@ -1347,7 +1350,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="L15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>0.5</v>
@@ -1380,7 +1383,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="L16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R16">
         <v>0.5</v>
@@ -1413,7 +1416,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="L17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>0.5</v>
@@ -1448,10 +1451,10 @@
         <v>461.45699999999999</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0.5</v>
@@ -1484,7 +1487,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="L19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R19">
         <v>0.5</v>
@@ -1517,7 +1520,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="L20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20">
         <v>0.5</v>
@@ -1550,7 +1553,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="L21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R21">
         <v>0.5</v>
@@ -1583,7 +1586,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="L22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R22">
         <v>0.5</v>
@@ -1616,7 +1619,7 @@
       </c>
       <c r="F23" s="11"/>
       <c r="L23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R23">
         <v>0.5</v>
@@ -1649,7 +1652,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="L24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R24">
         <v>0.5</v>
@@ -1682,7 +1685,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="L25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R25">
         <v>0.5</v>
@@ -1715,7 +1718,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="L26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R26">
         <v>0.5</v>
@@ -1748,7 +1751,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="L27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R27">
         <v>0.5</v>
@@ -1781,7 +1784,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="L28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R28">
         <v>0.5</v>
@@ -1814,7 +1817,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="L29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R29">
         <v>0.5</v>

--- a/Data/Input/With_observations/Brana/Brana.xlsx
+++ b/Data/Input/With_observations/Brana/Brana.xlsx
@@ -811,7 +811,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:U1"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,10 +907,10 @@
         <v>321.42500000000001</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O2" s="3"/>
       <c r="R2">
@@ -944,7 +944,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="L3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0.5</v>
@@ -977,7 +977,7 @@
       </c>
       <c r="F4" s="9"/>
       <c r="L4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0.5</v>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="F5" s="9"/>
       <c r="L5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0.5</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F6" s="9"/>
       <c r="L6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0.5</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="F7" s="9"/>
       <c r="L7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -1111,10 +1111,10 @@
         <v>525.62</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0.5</v>
@@ -1149,7 +1149,7 @@
         <v>510.834</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0.5</v>
@@ -1184,10 +1184,10 @@
         <v>320.37599999999998</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0.5</v>
@@ -1222,10 +1222,10 @@
         <v>655.55600000000004</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0.5</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="L12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>0.5</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="L13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>0.5</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="L14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>0.5</v>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="L15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0.5</v>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="L16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0.5</v>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="L17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0.5</v>
@@ -1458,10 +1458,10 @@
         <v>461.45699999999999</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0.5</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="L19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>0.5</v>
@@ -1526,9 +1526,6 @@
         <v>41</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="L20">
-        <v>5</v>
-      </c>
       <c r="R20">
         <v>0.5</v>
       </c>
@@ -1560,7 +1557,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="L21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>0.5</v>
@@ -1593,7 +1590,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="L22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0.5</v>
@@ -1626,7 +1623,7 @@
       </c>
       <c r="F23" s="11"/>
       <c r="L23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <v>0.5</v>
@@ -1659,7 +1656,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="L24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0.5</v>
@@ -1692,7 +1689,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="L25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R25">
         <v>0.5</v>
@@ -1725,7 +1722,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="L26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>0.5</v>
@@ -1758,7 +1755,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="L27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>0.5</v>
@@ -1791,7 +1788,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="L28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <v>0.5</v>
@@ -1824,7 +1821,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="L29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0.5</v>
